--- a/config_2.9/fish_yutu_random_2.xlsx
+++ b/config_2.9/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,69 +240,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5,5,5,</t>
+  </si>
+  <si>
+    <t>create_weight6</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>60,10,5</t>
+  </si>
+  <si>
+    <t>巨</t>
+  </si>
+  <si>
+    <t>10,10,10</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>191,192,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,167,168,169,170,</t>
-  </si>
-  <si>
-    <t>5,5,5,</t>
-  </si>
-  <si>
-    <t>create_weight6</t>
-  </si>
-  <si>
-    <t>活动</t>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-  </si>
-  <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>60,10,5</t>
-  </si>
-  <si>
-    <t>巨</t>
-  </si>
-  <si>
-    <t>10,10,10</t>
-  </si>
-  <si>
-    <t>boss</t>
-  </si>
-  <si>
-    <t>191,192,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,201,202,203,201,202,203,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,208,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,186,187,133,134,134,206,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,18,19,20,21,184,185,131,132,204,205,206,207,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,131,132,204,205,206,207,212,213,214,215,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,186,187,133,134,134,206,214,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207,214,215,215,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,208,216,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,201,202,203,201,202,203,209,210,211,209,210,211,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +438,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -485,6 +486,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1143,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -1165,18 +1179,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="13.125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="10" customWidth="1"/>
     <col min="6" max="6" width="18" style="10" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="8" customWidth="1"/>
@@ -1240,10 +1254,10 @@
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>16</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
       <c r="E3" s="9">
@@ -1264,13 +1278,13 @@
       <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>17</v>
       </c>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="9">
@@ -1290,7 +1304,7 @@
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="21">
         <v>21</v>
       </c>
       <c r="D5" s="9">
@@ -1314,7 +1328,7 @@
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="21">
         <v>22</v>
       </c>
       <c r="D6" s="9">
@@ -1337,7 +1351,7 @@
       <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="21">
         <v>23</v>
       </c>
       <c r="D7" s="9">
@@ -1360,7 +1374,7 @@
       <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="21">
         <v>24</v>
       </c>
       <c r="D8" s="9">
@@ -1383,13 +1397,13 @@
       <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>35</v>
       </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
         <v>1</v>
       </c>
       <c r="G9" s="10">
@@ -1406,13 +1420,13 @@
       <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>36</v>
       </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
         <v>1</v>
       </c>
       <c r="G10" s="10">
@@ -1429,13 +1443,13 @@
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>37</v>
       </c>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
         <v>1</v>
       </c>
       <c r="G11" s="10">
@@ -1452,13 +1466,13 @@
       <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>38</v>
       </c>
-      <c r="D12" s="8">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10">
         <v>5</v>
       </c>
       <c r="G12" s="10">
@@ -1469,7 +1483,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -1493,7 +1507,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -1517,7 +1531,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -1541,7 +1555,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -1565,7 +1579,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -1579,15 +1593,15 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="19">
+      <c r="G17" s="20">
         <v>1612828800</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="20">
         <v>1613404799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -1601,15 +1615,15 @@
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="19">
+      <c r="G18" s="20">
         <v>1612828800</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="20">
         <v>1613404799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -1623,15 +1637,15 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="19">
+      <c r="G19" s="20">
         <v>1612828800</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="20">
         <v>1613404799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1647,11 +1661,101 @@
         <v>5</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="19">
+      <c r="G20" s="20">
         <v>1612828800</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="20">
         <v>1613404799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="23">
+        <v>48</v>
+      </c>
+      <c r="D21" s="23">
+        <v>2</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="23">
+        <v>49</v>
+      </c>
+      <c r="D22" s="23">
+        <v>2</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="23">
+        <v>50</v>
+      </c>
+      <c r="D23" s="23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="23">
+        <v>51</v>
+      </c>
+      <c r="D24" s="23">
+        <v>2</v>
+      </c>
+      <c r="E24" s="23">
+        <v>5</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1614009599</v>
       </c>
     </row>
   </sheetData>
@@ -1849,8 +1953,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1884,16 +1988,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1901,16 +2005,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1918,16 +2022,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1935,16 +2039,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,46 +2059,46 @@
         <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11"/>
+      <c r="B11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13"/>

--- a/config_2.9/fish_yutu_random_2.xlsx
+++ b/config_2.9/fish_yutu_random_2.xlsx
@@ -381,7 +381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +397,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +437,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -476,6 +482,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1159,7 +1168,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1383,10 +1392,10 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="10">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="10">
         <v>1606751999</v>
       </c>
     </row>
@@ -1406,10 +1415,10 @@
       <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="10">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="10">
         <v>1606751999</v>
       </c>
     </row>
@@ -1429,10 +1438,10 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="10">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <v>1606751999</v>
       </c>
     </row>
@@ -1452,10 +1461,10 @@
       <c r="E12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="10">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <v>1606751999</v>
       </c>
     </row>
@@ -1568,15 +1577,13 @@
       <c r="D17" s="15">
         <v>2</v>
       </c>
-      <c r="E17" s="15">
-        <v>1</v>
-      </c>
+      <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="16">
-        <v>1612224000</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1612799999</v>
+      <c r="G17" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1592,15 +1599,13 @@
       <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="E18" s="15">
-        <v>1</v>
-      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="16">
-        <v>1612224000</v>
-      </c>
-      <c r="H18" s="16">
-        <v>1612799999</v>
+      <c r="G18" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1616,15 +1621,13 @@
       <c r="D19" s="15">
         <v>2</v>
       </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="16">
-        <v>1612224000</v>
-      </c>
-      <c r="H19" s="16">
-        <v>1612799999</v>
+      <c r="G19" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1644,11 +1647,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="16">
-        <v>1612224000</v>
-      </c>
-      <c r="H20" s="16">
-        <v>1612799999</v>
+      <c r="G20" s="19">
+        <v>1612828800</v>
+      </c>
+      <c r="H20" s="19">
+        <v>1613404799</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/fish_yutu_random_2.xlsx
+++ b/config_2.9/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,23 +287,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12,13,14,15,18,19,20,21,184,185,131,132,204,205,206,207,212,213,214,215,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,186,187,133,134,134,206,214,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207,214,215,215,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,208,216,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,201,202,203,201,202,203,209,210,211,209,210,211,</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,131,132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,186,187,133,134,134,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201,202,203,204,205,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206,207,208,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209,210,211,212,,213,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214,215,216,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>217,218,219,220,221,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222,223,224,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +417,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,13 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +479,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -470,13 +511,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,22 +518,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1056,18 +1098,21 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="43" customWidth="1"/>
     <col min="5" max="5" width="58.5" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="E1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1101,7 +1152,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1118,7 +1169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1135,7 +1186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1152,7 +1203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1167,6 +1218,420 @@
       </c>
       <c r="E6" s="12" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1200</v>
+      </c>
+      <c r="D7" s="19">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1612828800</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1200</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1612828800</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1612828800</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1200</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1612828800</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1200</v>
+      </c>
+      <c r="D11" s="19">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1612828800</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="19">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="19">
+        <v>6000</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1612828800</v>
+      </c>
+      <c r="G12" s="24">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1200</v>
+      </c>
+      <c r="D13" s="20">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1200</v>
+      </c>
+      <c r="D14" s="20">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="20">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1200</v>
+      </c>
+      <c r="D16" s="20">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="20">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="20">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="20">
+        <v>6000</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G18" s="25">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1200</v>
+      </c>
+      <c r="D19" s="21">
+        <v>3000</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1200</v>
+      </c>
+      <c r="D20" s="21">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1200</v>
+      </c>
+      <c r="D21" s="21">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1200</v>
+      </c>
+      <c r="D22" s="21">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1200</v>
+      </c>
+      <c r="D23" s="21">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G23" s="26">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="21">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="21">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1614614399</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1647,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1304,7 +1769,7 @@
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="16">
         <v>21</v>
       </c>
       <c r="D5" s="9">
@@ -1328,7 +1793,7 @@
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="16">
         <v>22</v>
       </c>
       <c r="D6" s="9">
@@ -1351,7 +1816,7 @@
       <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="16">
         <v>23</v>
       </c>
       <c r="D7" s="9">
@@ -1374,7 +1839,7 @@
       <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="16">
         <v>24</v>
       </c>
       <c r="D8" s="9">
@@ -1482,281 +1947,181 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>40</v>
       </c>
-      <c r="D13" s="18">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16">
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="13">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>41</v>
       </c>
-      <c r="D14" s="18">
-        <v>2</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="16">
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="13">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>42</v>
       </c>
-      <c r="D15" s="18">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="16">
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="13">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>43</v>
       </c>
-      <c r="D16" s="18">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
         <v>5</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16">
+      <c r="F16" s="15"/>
+      <c r="G16" s="13">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="13">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="14">
-        <v>44</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="H17" s="20">
-        <v>1613404799</v>
-      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="14">
-        <v>45</v>
-      </c>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1613404799</v>
-      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="14">
-        <v>46</v>
-      </c>
-      <c r="D19" s="15">
-        <v>2</v>
-      </c>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="H19" s="20">
-        <v>1613404799</v>
-      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="14">
-        <v>47</v>
-      </c>
-      <c r="D20" s="15">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15">
-        <v>5</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="H20" s="20">
-        <v>1613404799</v>
-      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="23">
-        <v>48</v>
-      </c>
-      <c r="D21" s="23">
-        <v>2</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="19">
-        <v>1613433600</v>
-      </c>
-      <c r="H21" s="19">
-        <v>1614009599</v>
-      </c>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="23">
-        <v>49</v>
-      </c>
-      <c r="D22" s="23">
-        <v>2</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="19">
-        <v>1613433600</v>
-      </c>
-      <c r="H22" s="19">
-        <v>1614009599</v>
-      </c>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="23">
-        <v>50</v>
-      </c>
-      <c r="D23" s="23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="19">
-        <v>1613433600</v>
-      </c>
-      <c r="H23" s="19">
-        <v>1614009599</v>
-      </c>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="23">
-        <v>51</v>
-      </c>
-      <c r="D24" s="23">
-        <v>2</v>
-      </c>
-      <c r="E24" s="23">
-        <v>5</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="19">
-        <v>1613433600</v>
-      </c>
-      <c r="H24" s="19">
-        <v>1614009599</v>
-      </c>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1953,8 +2318,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2005,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>57</v>
@@ -2022,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>57</v>
@@ -2039,7 +2404,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>61</v>
@@ -2056,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>63</v>
@@ -2068,12 +2433,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>65</v>
@@ -2095,7 +2460,7 @@
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="24"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>

--- a/config_2.9/fish_yutu_random_2.xlsx
+++ b/config_2.9/fish_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>209,210,211,212,,213,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>214,215,216,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,6 +335,26 @@
   </si>
   <si>
     <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209,210,211,212,213,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209,210,211,212,213,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209,210,211,212,213,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209,210,211,212,213,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209,210,211,212,213,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1117,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1129,10 +1145,10 @@
         <v>41</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1303,7 +1319,7 @@
         <v>3000</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="24">
         <v>1612828800</v>
@@ -1326,7 +1342,7 @@
         <v>3000</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="24">
         <v>1612828800</v>
@@ -1349,7 +1365,7 @@
         <v>6000</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="24">
         <v>1612828800</v>
@@ -1363,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C13" s="20">
         <v>1200</v>
@@ -1372,7 +1388,7 @@
         <v>3000</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="25">
         <v>1613433600</v>
@@ -1386,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C14" s="20">
         <v>1200</v>
@@ -1395,7 +1411,7 @@
         <v>3000</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="25">
         <v>1613433600</v>
@@ -1409,7 +1425,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C15" s="20">
         <v>1200</v>
@@ -1418,7 +1434,7 @@
         <v>3000</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="25">
         <v>1613433600</v>
@@ -1432,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C16" s="20">
         <v>1200</v>
@@ -1441,7 +1457,7 @@
         <v>3000</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="25">
         <v>1613433600</v>
@@ -1455,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C17" s="20">
         <v>1200</v>
@@ -1464,7 +1480,7 @@
         <v>3000</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="25">
         <v>1613433600</v>
@@ -1478,7 +1494,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="20">
         <v>3000</v>
@@ -1487,7 +1503,7 @@
         <v>6000</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="25">
         <v>1613433600</v>
@@ -1501,7 +1517,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="21">
         <v>1200</v>
@@ -1510,7 +1526,7 @@
         <v>3000</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="26">
         <v>1614038400</v>
@@ -1524,7 +1540,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="21">
         <v>1200</v>
@@ -1533,7 +1549,7 @@
         <v>3000</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="26">
         <v>1614038400</v>
@@ -1547,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="21">
         <v>1200</v>
@@ -1556,7 +1572,7 @@
         <v>3000</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="26">
         <v>1614038400</v>
@@ -1570,7 +1586,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="21">
         <v>1200</v>
@@ -1579,7 +1595,7 @@
         <v>3000</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="26">
         <v>1614038400</v>
@@ -1593,7 +1609,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="21">
         <v>1200</v>
@@ -1602,7 +1618,7 @@
         <v>3000</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="26">
         <v>1614038400</v>
@@ -1616,7 +1632,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="21">
         <v>3000</v>
@@ -1625,7 +1641,7 @@
         <v>6000</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="26">
         <v>1614038400</v>

--- a/config_2.9/fish_yutu_random_2.xlsx
+++ b/config_2.9/fish_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,10 +335,6 @@
   </si>
   <si>
     <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>209,210,211,212,213,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1114,10 +1110,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1244,10 +1240,10 @@
         <v>74</v>
       </c>
       <c r="C7" s="19">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D7" s="19">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>53</v>
@@ -1267,10 +1263,10 @@
         <v>74</v>
       </c>
       <c r="C8" s="19">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D8" s="19">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>53</v>
@@ -1290,13 +1286,13 @@
         <v>74</v>
       </c>
       <c r="C9" s="19">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D9" s="19">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F9" s="24">
         <v>1612828800</v>
@@ -1313,10 +1309,10 @@
         <v>74</v>
       </c>
       <c r="C10" s="19">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D10" s="19">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>79</v>
@@ -1333,13 +1329,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="19">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="D11" s="19">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>79</v>
@@ -1355,23 +1351,23 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="19">
-        <v>3000</v>
-      </c>
-      <c r="D12" s="19">
-        <v>6000</v>
-      </c>
-      <c r="E12" s="27" t="s">
+      <c r="B12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="20">
+        <v>200</v>
+      </c>
+      <c r="D12" s="20">
+        <v>300</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="24">
-        <v>1612828800</v>
-      </c>
-      <c r="G12" s="24">
-        <v>1613404799</v>
+      <c r="F12" s="25">
+        <v>1613433600</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1614009599</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1379,13 +1375,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="20">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D13" s="20">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>79</v>
@@ -1402,13 +1398,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="20">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D14" s="20">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>79</v>
@@ -1425,13 +1421,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="20">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D15" s="20">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>79</v>
@@ -1448,13 +1444,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C16" s="20">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="D16" s="20">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>79</v>
@@ -1470,46 +1466,46 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="20">
-        <v>1200</v>
-      </c>
-      <c r="D17" s="20">
-        <v>3000</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="B17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="21">
+        <v>200</v>
+      </c>
+      <c r="D17" s="21">
+        <v>300</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="25">
-        <v>1613433600</v>
-      </c>
-      <c r="G17" s="25">
-        <v>1614009599</v>
+      <c r="F17" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1614614399</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="20">
-        <v>3000</v>
-      </c>
-      <c r="D18" s="20">
-        <v>6000</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="B18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="21">
+        <v>200</v>
+      </c>
+      <c r="D18" s="21">
+        <v>300</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="25">
-        <v>1613433600</v>
-      </c>
-      <c r="G18" s="25">
-        <v>1614009599</v>
+      <c r="F18" s="26">
+        <v>1614038400</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1614614399</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1520,10 +1516,10 @@
         <v>77</v>
       </c>
       <c r="C19" s="21">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D19" s="21">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>79</v>
@@ -1543,10 +1539,10 @@
         <v>77</v>
       </c>
       <c r="C20" s="21">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D20" s="21">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>79</v>
@@ -1563,13 +1559,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" s="21">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="D21" s="21">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>79</v>
@@ -1578,75 +1574,6 @@
         <v>1614038400</v>
       </c>
       <c r="G21" s="26">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D22" s="21">
-        <v>3000</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="26">
-        <v>1614038400</v>
-      </c>
-      <c r="G22" s="26">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D23" s="21">
-        <v>3000</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="26">
-        <v>1614038400</v>
-      </c>
-      <c r="G23" s="26">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="21">
-        <v>3000</v>
-      </c>
-      <c r="D24" s="21">
-        <v>6000</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="26">
-        <v>1614038400</v>
-      </c>
-      <c r="G24" s="26">
         <v>1614614399</v>
       </c>
     </row>
